--- a/PrintIngredientsList/Database/共通.xlsx
+++ b/PrintIngredientsList/Database/共通.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_PrintLayout\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850715B8-CB71-44CA-84FA-CEFDAD400CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82907813-B76F-412F-9AC5-250E3708BFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="8040" windowWidth="24555" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="5640" windowWidth="24555" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>北九州市八幡西区
+本城東2-1-21
+株式会社地に立つ蝶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>保存方法</t>
     <rPh sb="0" eb="4">
       <t>ホゾンホウホウ</t>
@@ -65,6 +71,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>直射日光、高温多湿はお避け下さい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>冷蔵</t>
     <rPh sb="0" eb="2">
       <t>レイゾウ</t>
@@ -80,6 +90,11 @@
     <rPh sb="0" eb="2">
       <t>レイトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要冷凍（-18℃以下）
+※解凍後は当日中にお召し上がりください。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -113,22 +128,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>北九州市八幡西区本城東4-5-24 株式会社 地に立つ蝶</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>北九州市八幡西区本城東2-1-21 株式会社 地に立つ蝶</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直射日光、高温多湿はお避け下さい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要冷凍（-18℃以下）※解凍後は当日中にお召し上がり下さい</t>
-    <rPh sb="26" eb="27">
-      <t>クダ</t>
-    </rPh>
+    <t>北九州市八幡西区１
+本城東4-5-24
+株式会社地に立つ蝶</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -470,7 +472,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -481,16 +483,16 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.5">
+    <row r="2" spans="1:3" ht="56.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5">
+    <row r="3" spans="1:3" ht="56.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,40 +511,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.5">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
